--- a/biology/Zoologie/Euungulata/Euungulata.xlsx
+++ b/biology/Zoologie/Euungulata/Euungulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euungulata sont un taxon hypothétique de mammifères placentaires. Ce clade a été proposé pour rassembler l'ordre des Perissodactyla (équidés, rhinocéros et tapirs) et celui des Cetartiodactyla (ruminants, camélidés, porcins, hippopotames et cétacés).
-Plusieurs études cladistiques ont démontré la polyphylie du super-ordre des Ongulés (Ungulata), décrit à l'origine par Linné. Certains auteurs[1],[2] en ont donc proposé une définition plus restreinte, centrée sur les ongulés « historiques » (périssodactyles et artiodactyles), mais en y adjoignant le groupe des cétacés. Ces Euungulata, ou « ongulés vrais », constitueraient ainsi un clade monophylétique et formeraient le groupe frère des Ferae (carnivores et pangolins).
-D'autres études[3],[4] placent au contraire les Perissodactyla et les Ferae dans un clade nommé Zooamata et rendent ainsi le concept d'ongulé définitivement caduc.
+Plusieurs études cladistiques ont démontré la polyphylie du super-ordre des Ongulés (Ungulata), décrit à l'origine par Linné. Certains auteurs, en ont donc proposé une définition plus restreinte, centrée sur les ongulés « historiques » (périssodactyles et artiodactyles), mais en y adjoignant le groupe des cétacés. Ces Euungulata, ou « ongulés vrais », constitueraient ainsi un clade monophylétique et formeraient le groupe frère des Ferae (carnivores et pangolins).
+D'autres études, placent au contraire les Perissodactyla et les Ferae dans un clade nommé Zooamata et rendent ainsi le concept d'ongulé définitivement caduc.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des ordres actuels de laurasiathériens, d'après Zhou et al., 2011[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des ordres actuels de laurasiathériens, d'après Zhou et al., 2011 :
 </t>
         </is>
       </c>
